--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed5/result_data_KNN.xlsx
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.909999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.053999999999998</v>
+        <v>8.599</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.078</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.165999999999999</v>
+        <v>6.248</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.078000000000001</v>
+        <v>4.933</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.924</v>
+        <v>5.505</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.367000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.741999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.25</v>
+        <v>5.564</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.792</v>
+        <v>5.245</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.354000000000003</v>
+        <v>7.950999999999999</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
